--- a/Excel/table_of_data.xlsx
+++ b/Excel/table_of_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SV11"/>
+  <dimension ref="A1:SW11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,6 +3014,11 @@
           <t>cddd_511</t>
         </is>
       </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>cddd_512</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4572,6 +4577,9 @@
       <c r="SV2" t="n">
         <v>-0.24400204</v>
       </c>
+      <c r="SW2" t="n">
+        <v>0.48660338</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -6130,6 +6138,9 @@
       <c r="SV3" t="n">
         <v>-0.24400204</v>
       </c>
+      <c r="SW3" t="n">
+        <v>0.48660338</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -7688,6 +7699,9 @@
       <c r="SV4" t="n">
         <v>-0.24400204</v>
       </c>
+      <c r="SW4" t="n">
+        <v>0.48660338</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -9246,6 +9260,9 @@
       <c r="SV5" t="n">
         <v>-0.13387632</v>
       </c>
+      <c r="SW5" t="n">
+        <v>-0.41899076</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -10804,6 +10821,9 @@
       <c r="SV6" t="n">
         <v>-0.13387632</v>
       </c>
+      <c r="SW6" t="n">
+        <v>-0.41899076</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -12362,6 +12382,9 @@
       <c r="SV7" t="n">
         <v>0.12512775</v>
       </c>
+      <c r="SW7" t="n">
+        <v>-0.059445456</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -13920,6 +13943,9 @@
       <c r="SV8" t="n">
         <v>0.12512775</v>
       </c>
+      <c r="SW8" t="n">
+        <v>-0.059445456</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -15478,6 +15504,9 @@
       <c r="SV9" t="n">
         <v>0.12512775</v>
       </c>
+      <c r="SW9" t="n">
+        <v>-0.059445456</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -17036,6 +17065,9 @@
       <c r="SV10" t="n">
         <v>0.12512775</v>
       </c>
+      <c r="SW10" t="n">
+        <v>-0.059445456</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -18593,6 +18625,9 @@
       </c>
       <c r="SV11" t="n">
         <v>0.12512775</v>
+      </c>
+      <c r="SW11" t="n">
+        <v>-0.059445456</v>
       </c>
     </row>
   </sheetData>
